--- a/Database_backup/Contract-2020-08-09.xlsx
+++ b/Database_backup/Contract-2020-08-09.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\cmis6\Database_backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Website_26_07_2020\cmis6\Database_backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17115" windowHeight="7440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17112" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="155">
   <si>
     <t>id</t>
   </si>
@@ -478,6 +478,15 @@
   </si>
   <si>
     <t>2016-12-13</t>
+  </si>
+  <si>
+    <t>NETR/PW-08</t>
+  </si>
+  <si>
+    <t>BWDB/ Netr/HFMLIP/PW-08 Dampara &amp; Singer Beel (Re-hab. Haor)</t>
+  </si>
+  <si>
+    <t>GS-SI (JV)</t>
   </si>
 </sst>
 </file>
@@ -825,19 +834,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:U45"/>
+  <dimension ref="A1:U46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18:U18"/>
+      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="64.21875" customWidth="1"/>
+    <col min="4" max="4" width="42.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -902,7 +913,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>49</v>
       </c>
@@ -925,7 +936,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>48</v>
       </c>
@@ -948,7 +959,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>47</v>
       </c>
@@ -971,7 +982,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>41</v>
       </c>
@@ -997,7 +1008,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>40</v>
       </c>
@@ -1023,7 +1034,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>39</v>
       </c>
@@ -1049,7 +1060,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>38</v>
       </c>
@@ -1075,7 +1086,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>37</v>
       </c>
@@ -1101,7 +1112,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>36</v>
       </c>
@@ -1124,7 +1135,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>35</v>
       </c>
@@ -1147,7 +1158,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>34</v>
       </c>
@@ -1170,7 +1181,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>33</v>
       </c>
@@ -1196,7 +1207,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>32</v>
       </c>
@@ -1222,7 +1233,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>31</v>
       </c>
@@ -1245,7 +1256,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>30</v>
       </c>
@@ -1268,7 +1279,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>29</v>
       </c>
@@ -1291,7 +1302,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>28</v>
       </c>
@@ -1317,7 +1328,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>27</v>
       </c>
@@ -1343,7 +1354,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>26</v>
       </c>
@@ -1369,7 +1380,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>25</v>
       </c>
@@ -1395,7 +1406,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>24</v>
       </c>
@@ -1421,7 +1432,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23</v>
       </c>
@@ -1447,7 +1458,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1473,7 +1484,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>21</v>
       </c>
@@ -1499,7 +1510,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>20</v>
       </c>
@@ -1525,7 +1536,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>19</v>
       </c>
@@ -1551,7 +1562,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>18</v>
       </c>
@@ -1577,7 +1588,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>17</v>
       </c>
@@ -1603,7 +1614,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>16</v>
       </c>
@@ -1629,7 +1640,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>15</v>
       </c>
@@ -1655,7 +1666,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>14</v>
       </c>
@@ -1681,7 +1692,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>13</v>
       </c>
@@ -1707,7 +1718,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>12</v>
       </c>
@@ -1733,7 +1744,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>11</v>
       </c>
@@ -1759,7 +1770,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>10</v>
       </c>
@@ -1785,7 +1796,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>9</v>
       </c>
@@ -1811,7 +1822,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>8</v>
       </c>
@@ -1837,7 +1848,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>7</v>
       </c>
@@ -1863,7 +1874,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>6</v>
       </c>
@@ -1889,7 +1900,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>5</v>
       </c>
@@ -1915,7 +1926,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>4</v>
       </c>
@@ -1941,7 +1952,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>3</v>
       </c>
@@ -1967,7 +1978,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1993,7 +2004,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1</v>
       </c>
@@ -2017,6 +2028,29 @@
       </c>
       <c r="J45" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>152</v>
+      </c>
+      <c r="C46" t="s">
+        <v>153</v>
+      </c>
+      <c r="D46" t="s">
+        <v>154</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="I46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Database_backup/Contract-2020-08-09.xlsx
+++ b/Database_backup/Contract-2020-08-09.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tablib Dataset'!$A$1:$U$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tablib Dataset'!$A$1:$U$46</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -528,9 +528,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -833,18 +845,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:U46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
+      <selection pane="bottomLeft" activeCell="C48" sqref="C47:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.33203125" customWidth="1"/>
-    <col min="3" max="3" width="64.21875" customWidth="1"/>
+    <col min="2" max="2" width="23" style="5" customWidth="1"/>
+    <col min="3" max="3" width="86.21875" customWidth="1"/>
     <col min="4" max="4" width="42.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -852,10 +863,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -913,342 +924,360 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>49</v>
-      </c>
-      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>33</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>23</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="B6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>47</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
         <v>31</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>7</v>
-      </c>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>40</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>7</v>
-      </c>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="I7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>38</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>37</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>151</v>
       </c>
       <c r="J9" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
+        <v>2</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="J10" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" t="s">
-        <v>49</v>
+        <v>3</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="J11" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
+        <v>4</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="J12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" t="s">
-        <v>54</v>
+        <v>5</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>137</v>
+      </c>
+      <c r="J13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>6</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>32</v>
-      </c>
-      <c r="B14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" t="s">
-        <v>57</v>
+      <c r="B14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="J14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" t="s">
-        <v>60</v>
+        <v>10</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
       <c r="I15" t="s">
         <v>24</v>
       </c>
@@ -1256,22 +1285,25 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" t="s">
-        <v>63</v>
+        <v>11</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
       <c r="I16" t="s">
         <v>24</v>
       </c>
@@ -1279,21 +1311,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" t="s">
-        <v>66</v>
+        <v>12</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="E17">
         <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
       </c>
       <c r="I17" t="s">
         <v>24</v>
@@ -1304,19 +1339,19 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" t="s">
-        <v>69</v>
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -1330,45 +1365,45 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>27</v>
-      </c>
-      <c r="B19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" t="s">
-        <v>74</v>
+        <v>7</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="J19" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>26</v>
-      </c>
-      <c r="B20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" t="s">
-        <v>69</v>
+        <v>8</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -1382,358 +1417,343 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="I21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="I22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="I23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>17</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>18</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="I25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>19</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="I26" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>48</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>30</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>31</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>15</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="I30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>20</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="I32" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>49</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>25</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C34" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D34" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E21">
+      <c r="E34">
         <v>3</v>
       </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="I21" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22">
-        <v>6</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="I22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23">
-        <v>6</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-      <c r="I23" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24">
-        <v>6</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-      <c r="I24" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>21</v>
-      </c>
-      <c r="B25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25">
-        <v>6</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="I25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>20</v>
-      </c>
-      <c r="B26" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="I26" t="s">
-        <v>24</v>
-      </c>
-      <c r="J26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>19</v>
-      </c>
-      <c r="B27" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="I27" t="s">
-        <v>24</v>
-      </c>
-      <c r="J27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>18</v>
-      </c>
-      <c r="B28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="I28" t="s">
-        <v>24</v>
-      </c>
-      <c r="J28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>17</v>
-      </c>
-      <c r="B29" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>2</v>
-      </c>
-      <c r="I29" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>16</v>
-      </c>
-      <c r="B30" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30" t="s">
-        <v>103</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>2</v>
-      </c>
-      <c r="I30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>15</v>
-      </c>
-      <c r="B31" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" t="s">
-        <v>105</v>
-      </c>
-      <c r="D31" t="s">
-        <v>100</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>2</v>
-      </c>
-      <c r="I31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>14</v>
-      </c>
-      <c r="B32" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" t="s">
-        <v>107</v>
-      </c>
-      <c r="D32" t="s">
-        <v>60</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="I32" t="s">
-        <v>24</v>
-      </c>
-      <c r="J32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>13</v>
-      </c>
-      <c r="B33" t="s">
-        <v>108</v>
-      </c>
-      <c r="C33" t="s">
-        <v>109</v>
-      </c>
-      <c r="D33" t="s">
-        <v>110</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>2</v>
-      </c>
-      <c r="I33" t="s">
-        <v>24</v>
-      </c>
-      <c r="J33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>12</v>
-      </c>
-      <c r="B34" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34" t="s">
-        <v>113</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
       <c r="F34">
         <v>2</v>
       </c>
@@ -1744,21 +1764,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>11</v>
-      </c>
-      <c r="B35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" t="s">
-        <v>115</v>
-      </c>
-      <c r="D35" t="s">
-        <v>113</v>
+        <v>28</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>2</v>
@@ -1770,21 +1790,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>10</v>
-      </c>
-      <c r="B36" t="s">
-        <v>116</v>
-      </c>
-      <c r="C36" t="s">
-        <v>117</v>
-      </c>
-      <c r="D36" t="s">
-        <v>118</v>
+        <v>26</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -1796,24 +1816,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>9</v>
-      </c>
-      <c r="B37" t="s">
-        <v>119</v>
-      </c>
-      <c r="C37" t="s">
-        <v>120</v>
-      </c>
-      <c r="D37" t="s">
-        <v>121</v>
+        <v>34</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I37" t="s">
         <v>24</v>
@@ -1822,24 +1839,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>8</v>
-      </c>
-      <c r="B38" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" t="s">
-        <v>123</v>
-      </c>
-      <c r="D38" t="s">
-        <v>124</v>
+        <v>35</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I38" t="s">
         <v>24</v>
@@ -1848,203 +1862,200 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="I39" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>27</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="I40" t="s">
+        <v>24</v>
+      </c>
+      <c r="J40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B41" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="I41" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>37</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>38</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>39</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="I44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>40</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45">
         <v>7</v>
       </c>
-      <c r="B39" t="s">
-        <v>125</v>
-      </c>
-      <c r="C39" t="s">
-        <v>126</v>
-      </c>
-      <c r="D39" t="s">
-        <v>127</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>2</v>
-      </c>
-      <c r="I39" t="s">
-        <v>128</v>
-      </c>
-      <c r="J39" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>6</v>
-      </c>
-      <c r="B40" t="s">
-        <v>130</v>
-      </c>
-      <c r="C40" t="s">
-        <v>131</v>
-      </c>
-      <c r="D40" t="s">
-        <v>132</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>2</v>
-      </c>
-      <c r="I40" t="s">
-        <v>133</v>
-      </c>
-      <c r="J40" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>5</v>
-      </c>
-      <c r="B41" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" t="s">
-        <v>135</v>
-      </c>
-      <c r="D41" t="s">
-        <v>136</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>2</v>
-      </c>
-      <c r="I41" t="s">
-        <v>137</v>
-      </c>
-      <c r="J41" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42">
+      <c r="I45" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>41</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46">
         <v>4</v>
       </c>
-      <c r="B42" t="s">
-        <v>138</v>
-      </c>
-      <c r="C42" t="s">
-        <v>139</v>
-      </c>
-      <c r="D42" t="s">
-        <v>140</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>2</v>
-      </c>
-      <c r="I42" t="s">
-        <v>141</v>
-      </c>
-      <c r="J42" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>3</v>
-      </c>
-      <c r="B43" t="s">
-        <v>142</v>
-      </c>
-      <c r="C43" t="s">
-        <v>143</v>
-      </c>
-      <c r="D43" t="s">
-        <v>144</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>2</v>
-      </c>
-      <c r="I43" t="s">
-        <v>128</v>
-      </c>
-      <c r="J43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>2</v>
-      </c>
-      <c r="B44" t="s">
-        <v>145</v>
-      </c>
-      <c r="C44" t="s">
-        <v>146</v>
-      </c>
-      <c r="D44" t="s">
-        <v>147</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>2</v>
-      </c>
-      <c r="I44" t="s">
-        <v>141</v>
-      </c>
-      <c r="J44" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>1</v>
-      </c>
-      <c r="B45" t="s">
-        <v>148</v>
-      </c>
-      <c r="C45" t="s">
-        <v>149</v>
-      </c>
-      <c r="D45" t="s">
-        <v>150</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="I45" t="s">
-        <v>151</v>
-      </c>
-      <c r="J45" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>152</v>
-      </c>
-      <c r="C46" t="s">
-        <v>153</v>
-      </c>
-      <c r="D46" t="s">
-        <v>154</v>
-      </c>
-      <c r="E46">
-        <v>3</v>
-      </c>
       <c r="F46">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I46" t="s">
         <v>24</v>
@@ -2054,13 +2065,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U45">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="3"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <sortState ref="A2:U46">
+    <sortCondition ref="B2:B46"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>